--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miloslav\PycharmProjects\CYOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13AA379-A372-470C-893B-40E311E4B868}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B55D302-4B83-425F-9C86-F5DF4F74E015}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="6810" xr2:uid="{2940E345-CB00-406C-BAFF-981FA1169925}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="54">
   <si>
     <t>fire</t>
   </si>
@@ -60,158 +60,159 @@
     <t>coulomb.god;save</t>
   </si>
   <si>
-    <t>mirror</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>OPTION_NUM</t>
-  </si>
-  <si>
-    <t>OPTION_SPELL</t>
-  </si>
-  <si>
-    <t>OPTION_ITEM</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
     <t>DESCRIPTION2</t>
   </si>
   <si>
-    <t>Библиотекарь ненадолго уходит, возвращается с пухлым потрёпанным манускриптом и открывает его на нужной странице. «Издалека пришли с волшебником его верные воины — рыцари ордена Аконита. Яркий и праздничный, этот цветок был выбран их символом и за сходство с рыцарским шлемом, и за свой яд. Две дюжины воинов входят в сей славный орден, и на каждого могущественный чародей и повелитель наш Барлад Дэрт наложил колдовское заклятие. С той поры они умеют многое: развеивать чары врага, творить свои, но любимая их забава в бою — направить на противника заклятие, которым тот хочет поразить их самих. Троих из рыцарей, самых ловких и умелых, колдун назначил командорами и доверил им возглавлять походы своих войск. Лучший же был назначен магистром, главным над всеми рыцарями. Ему маг и собирался перед смертью передать свой трон. Чтобы рыцарям легче было сражаться и побеждать, чародей заколдовал их щиты. Один раз взглянув, враг уже не в состоянии отвести от них глаз». Теперь вы можете либо попросить книгу о самом волшебнике</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jump345 или о принцессе jump208 либо покинуть библиотеку через дверь в противоположной стене jump627</t>
-  </si>
-  <si>
-    <t>Не успевает развилка скрыться из вида, как шум впереди заставляет насторожиться. Сбавив шаг, вы крадётесь, прижимаясь к деревьям, пока не убеждаетесь, что опасности нет. За поворотом дороги на обочине стонет какой-то человек в грязной и потрёпанной одежде. Его волосы громоздятся немытой копной, правую руку украшает рваный шрам. Всё выдаёт в нём разбойника: и богатый расшитый пояс, которым подвязаны лохмотья, и сломанная кривая сабля, валяющаяся неподалёку. На оружии и вокруг него — пятна крови. Скорее всего, незадолго до вашего появления здесь разыгралась битва не на жизнь, а на смерть, и тот, кто перед вами, не вышел из неё победителем. Разбойник тяжело ранен, с первого взгляда видно, что он умирает. Увидев вас, он с трудом приподнимается и зовёт: «Путник... подойди, кто бы ты ни был. Я несчастный торговец... на меня напали... лихие люди, ограбили до нитки и бросили здесь умирать. Подойди... помоги мне!» Вряд ли говорит правду; скорее всего, просто что-то не поделил со своими собратьями. Что вы сделаете? Под</t>
-  </si>
-  <si>
-    <t>ойдёте поближе и выясните, что ему надо? jump302 Или оставите умирать и пойдёте дальше? jump234</t>
-  </si>
-  <si>
-    <t>Кто его знает, что там за дверью. Надевать латы, да ещё одному, довольно непросто, но вы всё же решаете это сделать. Дверь не заперта и, гостеприимно распахнувшись, пропускает вас. Похоже, вы попали в комнату стражи. На стенах и на полу потёртые шкуры, грубо сколоченный стол с лавками подле него... Но главное, из-за стола навстречу вам вскакивают два очень удивлённых гарраса. По их лицам вы видите, что рыцари ордена Аконита заглядывают сюда нечасто, но мало ли какая прихоть взбрела вам в голову. И мало ли куда может вас отправить с поручением колдун. Гаррасы низко кланяются и, повинуясь небрежному взмаху руки, опускаются обратно на лавки. Что же теперь делать? Настоящий рыцарь ориентировался бы в замке куда лучше любого гарраса, но выто не настоящий! Между тем в комнате ещё три двери: по одной в каждой стене. Вот только имеет ли право рыцарь войти в любую из них? Однако долго думать нельзя: гаррасы могут насторожиться. Решайте: вы пойдёте в правую дверь jump446 в левую, на которой висит огромный замок jump257</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> или выберете дверь в противоположной стене? jump397</t>
-  </si>
-  <si>
-    <t>Вы оказываетесь в пустом и гулком холле Чёрного замка. Резкий хлопок за спиной едва не заставляет вас подпрыгнуть. Схватившись за меч, оборачиваетесь, но это всего лишь захлопнулась дверь, через которую вы вошли. Несколько секунд — и это уже не дверь, а часть стены, и даже нельзя сказать, где она была. Пытаетесь открыть её — слишком поздно. Может быть, когда-нибудь вы узнаете, почему все двери в замке будут закрываться за вашей спиной (так, что их при этом будет не открыть ни силой, ни ключами, ни колдовством), но пока есть только один путь — вперёд. Через каждые несколько шагов на стенах висят канделябры в виде извивающихся змей — света достаточно. Однако потолка не видно, он уходит куда-то вверх, в загадочную темноту, где царит эхо, сопровождающее каждый ваш шаг. Из холла ведут две двери и две лестницы. Лестница справа уходит вниз, слева — наверх. В конце холла две двери — тоже направо и налево, но они совершенно одинаковые, и ничто не подсказывает вам, какую из них выбрать. Решайте, куда пойдёте. По лестни</t>
-  </si>
-  <si>
-    <t>це вверх jump191 или вниз jump030 в дверь направо jump053 или налево? jump467</t>
-  </si>
-  <si>
-    <t>Сотворив заклятие, вы превращаетесь в опирающегося на посох высокого худого колдуна, глаза которого сверкают холодным огнём. Одна надежда, что они, как и вы сами, в глаза не видели Барлада Дэрта. После этого вы возвращаетесь на дорогу и неспешно выходите на поляну. «Та-ак, — презрительно тянете вы, поглаживая посох. — Лихие люди. В моём лесу». Стоит такая тишина, что вы на мгновение начинаете сомневаться, не привиделись ли вам разбойники. «Ты, ты и ты, — навершие посоха по очереди указывает на всех троих. — Ну-ка быстро сюда!» Разбойники мгновенно оказываются перед вами. «Мы больше никогда... Ни за что... Никого...» — зубы их громко стучат. «Конечно, никого...» — медленно произносите вы и видите, что арбалетчик хотел бы упасть в обморок, да не может. Подумав, вы обещаете разбойникам не превращать их в лягушек, если они поклянутся оставить своё ремесло. Те с готовностью клянутся, и вы понимаете, что пережитый ужас надолго удержит их от того, чтобы выходить на большую дорогу. В знак покорности разбойники отдают</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> «чародею» всё награбленное: 7 золотых coin007 камею с изображением дракона item000 и бронзовую статуэтку богини смерти Орробы item001 Можете взять с собой всё, что считаете нужным, отпустить разбойников, снять иллюзию и идти дальше jump046</t>
-  </si>
-  <si>
-    <t>battle Сражаться с ними придётся одновременно. Если победите их, то можете откинуть ставни и осмотреть домик jump120 Или же уйти и направиться к донжону jump416</t>
-  </si>
-  <si>
-    <t>Дверь открывается с таким жутким скрипом, что, кажется, вас и сам Барлад Дэрт услышит в своих покоях. Проклятье! Но что сделано, то сделано, и вы осторожно входите внутрь. Света со двора недостаточно, внутри не видно ни зги. Внезапно чьи-то крылья бьют по лицу, а острые зубы едва не разрывают плечо (потеряйте 1 СИЛУ). Вам придётся сражаться с летучими мышами: они давно уже привыкли считать, что заброшенный домик принадлежит им и только им. Если воспользуетесь заклятием Ловкости, можете на время боя увеличить свою ЛОВКОСТЬ на две единицы. Предпочтёте ослабить мышей, уменьшите на столько же МОЩНОСТЬ УДАРА любой из них. Помимо этого, вы можете воспользоваться заклятиями Огня jump557 или Копии. На ваше счастье, это обычные летучие мыши, и каждый их удар, попавший в цель, отнимет у вас не 2, а только 1 СИЛУ. 
+    <t xml:space="preserve"> Видимо, вы путешествуете слишком долго, и паж был следующим, кто вызвался освободить принцессу. По лесу он наверняка прошёл быстрее — и вот такая смерть... Может быть, поможет какая-нибудь вещица из вашего заплечного мешка? Что вы достанете? Мешочек с непроглядной тьмой? Перо павлина, если вы умеете с ним правильно обращаться? Серебряный сосуд? Ожерелье из топазов? Зажжёте свечу или светильник? Если же у вас нет ни одного из этих предметов, то jump572</t>
+  </si>
+  <si>
+    <t>Дверь открывается с таким жутким скрипом, что, кажется, вас и сам Барлад Дэрт услышит в своих покоях. Проклятье! Но что сделано, то сделано, и вы осторожно входите внутрь. Света со двора недостаточно, внутри не видно ни зги. Внезапно чьи-то крылья бьют по лицу, а острые зубы едва не разрывают плечо (потеряйте 1 СИЛУ). Вам придётся сражаться с летучими мышами: они давно уже привыкли считать, что заброшенный домик принадлежит им и только им. Если воспользуетесь заклятием Ловкости, можете на время боя увеличить свою ЛОВКОСТЬ на две единицы. Предпочтёте ослабить мышей, уменьшите на столько же МОЩНОСТЬ УДАРА любой из них. Помимо этого, вы можете воспользоваться заклятиями Огня jump557 или Копии. На ваше счастье, это обычные летучие мыши, и каждый их удар, попавший в цель, отнимет у вас не 2, а только 1 СИЛУ. _x000D_
+ _x000D_
+ $1ПЕРВАЯ ЛЕТУЧАЯ МЫШЬ _x000D_
+ $2Ловкость 10     Сила 4 _x000D_
+ $1ВТОРАЯ ЛЕТУЧАЯ МЫШЬ _x000D_
+ $2Ловкость 8     Сила 8 _x000D_
+ $1ТРЕТЬЯ ЛЕТУЧАЯ МЫШЬ _x000D_
+ $2Ловкость 8     Сила 6 battle Сражаться с ними придётся одновременно. Если победите их, то можете откинуть ставни и осмотреть домик jump120 Или же уйти и направиться к донжону jump416</t>
+  </si>
+  <si>
+    <t>Библиотекарь ненадолго уходит, возвращается с пухлым потрёпанным манускриптом и открывает его на нужной странице. «Издалека пришли с волшебником его верные воины — рыцари ордена Аконита. Яркий и праздничный, этот цветок был выбран их символом и за сходство с рыцарским шлемом, и за свой яд. Две дюжины воинов входят в сей славный орден, и на каждого могущественный чародей и повелитель наш Барлад Дэрт наложил колдовское заклятие. С той поры они умеют многое: развеивать чары врага, творить свои, но любимая их забава в бою — направить на противника заклятие, которым тот хочет поразить их самих. Троих из рыцарей, самых ловких и умелых, колдун назначил командорами и доверил им возглавлять походы своих войск. Лучший же был назначен магистром, главным над всеми рыцарями. Ему маг и собирался перед смертью передать свой трон. Чтобы рыцарям легче было сражаться и побеждать, чародей заколдовал их щиты. Один раз взглянув, враг уже не в состоянии отвести от них глаз». Теперь вы можете либо попросить книгу о самом волшебнике jump345 или о принцессе jump208 либо покинуть библиотеку через дверь в противоположной стене jump627</t>
+  </si>
+  <si>
+    <t>Миновав ворота, осторожно осматриваетесь в полутёмном дворе замка. Сказать, что он огромен, — это ничего не сказать! Прямо перед вами в центре двора высится высокая и уродливая башня — донжон. В темноте её чёрные стены кажутся покрытыми коростой. Присмотревшись, вы замечаете, что этот донжон не похож на всё виденное вами раньше: у него необычно широкое основание, а вот чем выше, тем больше башня сужается. Несколько минут, и вам начинает мерещиться устремлённый в небо перст, торчащий из сжатого кулака. Да, чего только не привидится... Где же принцесса? В подземной темнице или там, наверху, в самом неприступном месте башни? И где сейчас сам чародей? _x000D_
+ _x000D_
+ В левом, дальнем от вас углу двора из-под низенькой башенки вытекает река и скрывается под донжоном. Но как же они попадают внутрь, не по воде же? Скорее всего, вход в донжон должен быть с другой стороны двора. _x000D_
+ _x000D_
+ Тишина. Хотя нет, справа, немного в стороне от ворот, стоит сторожка, откуда слышны весёлые голоса гаррасов и звон стаканов. Слева — невысокий одноэтажный домик, похожий на маленькую часовенку. Куда вы направитесь? К строению в центре двора? jump308 К сторожке? jump666 К маленькому домику слева? jump116</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>SPELL</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>Если воспользуетесь заклятием Ловкости, можете на время боя увеличить свою ЛОВКОСТЬ на две единицы. Предпочтёте ослабить мышей, уменьшите на столько же МОЩНОСТЬ УДАРА любой из них. Помимо этого, вы можете воспользоваться заклятиями Огня jump557 или Копии. На ваше счастье, это обычные летучие мыши, и каждый их удар, попавший в цель, отнимет у вас не 2, а только 1 СИЛУ. 
  $1ПЕРВАЯ ЛЕТУЧАЯ МЫШЬ 
  $2Ловкость 10     Сила 4 
  $1ВТОРАЯ ЛЕТУЧАЯ МЫШЬ 
  $2Ловкость 8     Сила 8 
  $1ТРЕТЬЯ ЛЕТУЧАЯ МЫШЬ 
- $2Ловкость 8     Сила 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Теперь вы можете либо попросить книгу о самом волшебнике jump345 или о принцессе jump208 либо покинуть библиотеку через дверь в противоположной стене jump627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Библиотекарь ненадолго уходит, возвращается с пухлым потрёпанным манускриптом и открывает его на нужной странице. «Издалека пришли с волшебником его верные воины — рыцари ордена Аконита. Яркий и праздничный, этот цветок был выбран их символом и за сходство с рыцарским шлемом, и за свой яд. Две дюжины воинов входят в сей славный орден, и на каждого могущественный чародей и повелитель наш Барлад Дэрт наложил колдовское заклятие. С той поры они умеют многое: развеивать чары врага, творить свои, но любимая их забава в бою — направить на противника заклятие, которым тот хочет поразить их самих. Троих из рыцарей, самых ловких и умелых, колдун назначил командорами и доверил им возглавлять походы своих войск. Лучший же был назначен магистром, главным над всеми рыцарями. Ему маг и собирался перед смертью передать свой трон. Чтобы рыцарям легче было сражаться и побеждать, чародей заколдовал их щиты. Один раз взглянув, враг уже не в состоянии отвести от них глаз». </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Тишина. Хотя нет, справа, немного в стороне от ворот, стоит сторожка, откуда слышны весёлые голоса гаррасов и звон стаканов. Слева — невысокий одноэтажный домик, похожий на маленькую часовенку. Куда вы направитесь? К строению в центре двора? jump308 К сторожке? jump666 К маленькому домику слева? jump116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миновав ворота, осторожно осматриваетесь в полутёмном дворе замка. Сказать, что он огромен, — это ничего не сказать! Прямо перед вами в центре двора высится высокая и уродливая башня — донжон. В темноте её чёрные стены кажутся покрытыми коростой. Присмотревшись, вы замечаете, что этот донжон не похож на всё виденное вами раньше: у него необычно широкое основание, а вот чем выше, тем больше башня сужается. Несколько минут, и вам начинает мерещиться устремлённый в небо перст, торчащий из сжатого кулака. Да, чего только не привидится... Где же принцесса? В подземной темнице или там, наверху, в самом неприступном месте башни? И где сейчас сам чародей? 
- В левом, дальнем от вас углу двора из-под низенькой башенки вытекает река и скрывается под донжоном. Но как же они попадают внутрь, не по воде же? Скорее всего, вход в донжон должен быть с другой стороны двора. 
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Теперь уже туманными неопределённостями не отделаться. Что вы ответите: что идёте в Чёрный замок сражаться с волшебником jump610 или освобождать Принцессу jump284 что забрели в лес случайно jump492 или решите, что он не имеет права задавать вам никаких вопросов, и обнажите меч? jump563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вы продолжаете идти дальше. Вдруг ваше внимание привлекает какое-то движение в листве большого клёна справа от дороги. Остановившись, поднимаете голову. Из листвы на вас смотрит умное лицо с маленькой аккуратной бородкой. Большие серые глаза внимательно изучают вас какое-то время, а потом вниз спрыгивает маленький старичок в зелёной курточке и аккуратных зелёных штанишках, заправленных в сапожки. Это лесовичок, охраняющий дорогу. Но от кого: от ваших врагов или от ваших друзей? Этогото вы и не знаете, а между тем лесовичок интересуется, кто это тут гуляет по лесным дорогам-тропам. Вы отвечаете, что вы — одинокий искатель приключений, которого судьба занесла в зачарованный лес. Однако он не успокаивается и спрашивает, что вы ищете в этом лесу. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> А теперь решайте, куда вы направитесь. К реке? jump375 К шатрам? jump424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наконец-то вы во дворе Чёрного замка! Яркий свет факелов прямо перед вами заставляет остановиться и спрятаться в нише ворот. Двор полон гаррасами, снующими между шатров, тут и там горят костры. Вы чуть было не оказались в самом центре военного лагеря врага. 
+ $2Ловкость 8     Сила 6 battle Сражаться с ними придётся одновременно. Если победите их, то можете откинуть ставни и осмотреть домик jump120 Или же уйти и направиться к донжону jump416</t>
+  </si>
+  <si>
+    <t>… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Дверь открывается с таким жутким скрипом, что, кажется, вас и сам Барлад Дэрт услышит в своих покоях. Проклятье! Но что сделано, то сделано, и вы осторожно входите внутрь. Света со двора недостаточно, внутри не видно ни зги. Внезапно чьи-то крылья бьют по лицу, а острые зубы едва не разрывают плечо (потеряйте 1 СИЛУ). Вам придётся сражаться с летучими мышами: они давно уже привыкли считать, что заброшенный домик принадлежит им и только им… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Чтобы рыцарям легче было сражаться и побеждать, чародей заколдовал их щиты. Один раз взглянув, враг уже не в состоянии отвести от них глаз». Теперь вы можете либо попросить книгу о самом волшебнике jump345 или о принцессе jump208 либо покинуть библиотеку через дверь в противоположной стене jump627</t>
+  </si>
+  <si>
+    <t>Библиотекарь ненадолго уходит, возвращается с пухлым потрёпанным манускриптом и открывает его на нужной странице. «Издалека пришли с волшебником его верные воины — рыцари ордена Аконита. Яркий и праздничный, этот цветок был выбран их символом и за сходство с рыцарским шлемом, и за свой яд. Две дюжины воинов входят в сей славный орден, и на каждого могущественный чародей и повелитель наш Барлад Дэрт наложил колдовское заклятие. С той поры они умеют многое: развеивать чары врага, творить свои, но любимая их забава в бою — направить на противника заклятие, которым тот хочет поразить их самих. Троих из рыцарей, самых ловких и умелых, колдун назначил командорами и доверил им возглавлять походы своих войск. Лучший же был назначен магистром, главным над всеми рыцарями. Ему маг и собирался перед смертью передать свой трон… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Миновав ворота, осторожно осматриваетесь в полутёмном дворе замка. Сказать, что он огромен, — это ничего не сказать! Прямо перед вами в центре двора высится высокая и уродливая башня — донжон. В темноте её чёрные стены кажутся покрытыми коростой. Присмотревшись, вы замечаете, что этот донжон не похож на всё виденное вами раньше: у него необычно широкое основание, а вот чем выше, тем больше башня сужается. Несколько минут, и вам начинает мерещиться устремлённый в небо перст, торчащий из сжатого кулака. Да, чего только не привидится... Где же принцесса? В подземной темнице или там, наверху, в самом неприступном месте башни? И где сейчас сам чародей? 
+ … Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В левом, дальнем от вас углу двора из-под низенькой башенки вытекает река и скрывается под донжоном. Но как же они попадают внутрь, не по воде же? Скорее всего, вход в донжон должен быть с другой стороны двора. 
+ Тишина. Хотя нет, справа, немного в стороне от ворот, стоит сторожка, откуда слышны весёлые голоса гаррасов и звон стаканов. Слева — невысокий одноэтажный домик, похожий на маленькую часовенку. Куда вы направитесь? К строению в центре двора? jump308 К сторожке? jump666 К маленькому домику слева? jump116</t>
+  </si>
+  <si>
+    <t>Вы отвечаете, что вы — одинокий искатель приключений, которого судьба занесла в зачарованный лес. Однако он не успокаивается и спрашивает, что вы ищете в этом лесу. Теперь уже туманными неопределённостями не отделаться. Что вы ответите: что идёте в Чёрный замок сражаться с волшебником jump610 или освобождать Принцессу jump284 что забрели в лес случайно jump492 или решите, что он не имеет права задавать вам никаких вопросов, и обнажите меч? jump563</t>
+  </si>
+  <si>
+    <t>Вы продолжаете идти дальше. Вдруг ваше внимание привлекает какое-то движение в листве большого клёна справа от дороги. Остановившись, поднимаете голову. Из листвы на вас смотрит умное лицо с маленькой аккуратной бородкой. Большие серые глаза внимательно изучают вас какое-то время, а потом вниз спрыгивает маленький старичок в зелёной курточке и аккуратных зелёных штанишках, заправленных в сапожки. Это лесовичок, охраняющий дорогу. Но от кого: от ваших врагов или от ваших друзей? Этогото вы и не знаете, а между тем лесовичок интересуется, кто это тут гуляет по лесным дорогам-тропам. … Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Где же принцесса? В подземной темнице или там, наверху, в самом неприступном месте башни? И где сейчас сам чародей? 
+ Справа, из-под стены, вытекает река и скрывается под донжоном. Нет, понятно, конечно, что, в случае осады, гарнизону понадобится питьевая вода, но это уж чересчур... 
+ А теперь решайте, куда вы направитесь. К реке? jump375 К шатрам? jump424</t>
+  </si>
+  <si>
+    <t>Наконец-то вы во дворе Чёрного замка! Яркий свет факелов прямо перед вами заставляет остановиться и спрятаться в нише ворот. Двор полон гаррасами, снующими между шатров, тут и там горят костры. Вы чуть было не оказались в самом центре военного лагеря врага. 
+ Прямо перед вами в центре двора высится высокая и уродливая башня — донжон. На её чёрных стенах гуляют отблески пламени, отчего она кажется особенно зловещей. Приглядевшись, вы замечаете, что этот донжон не похож ни на один, виденный вами ранее, больше всего он напоминает гигантский молот, ручка которого устремлена в небо. Основание этого строения на редкость громоздко, а вот чем выше, тем больше башня сужается. Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Увидев вас, он с трудом приподнимается и зовёт: «Путник... подойди, кто бы ты ни был. Я несчастный торговец... на меня напали... лихие люди, ограбили до нитки и бросили здесь умирать. Подойди... помоги мне!» Вряд ли говорит правду; скорее всего, просто что-то не поделил со своими собратьями. Что вы сделаете? Подойдёте поближе и выясните, что ему надо? jump302 Или оставите умирать и пойдёте дальше? jump234</t>
+  </si>
+  <si>
+    <t>Не успевает развилка скрыться из вида, как шум впереди заставляет насторожиться. Сбавив шаг, вы крадётесь, прижимаясь к деревьям, пока не убеждаетесь, что опасности нет. За поворотом дороги на обочине стонет какой-то человек в грязной и потрёпанной одежде. Его волосы громоздятся немытой копной, правую руку украшает рваный шрам. Всё выдаёт в нём разбойника: и богатый расшитый пояс, которым подвязаны лохмотья, и сломанная кривая сабля, валяющаяся неподалёку. На оружии и вокруг него — пятна крови. Скорее всего, незадолго до вашего появления здесь разыгралась битва не на жизнь, а на смерть, и тот, кто перед вами, не вышел из неё победителем. Разбойник тяжело ранен, с первого взгляда видно, что он умирает… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Что же теперь делать? Настоящий рыцарь ориентировался бы в замке куда лучше любого гарраса, но выто не настоящий! Между тем в комнате ещё три двери: по одной в каждой стене. Вот только имеет ли право рыцарь войти в любую из них? Однако долго думать нельзя: гаррасы могут насторожиться. Решайте: вы пойдёте в правую дверь jump446 в левую, на которой висит огромный замок jump257 или выберете дверь в противоположной стене? jump397</t>
+  </si>
+  <si>
+    <t>Кто его знает, что там за дверью. Надевать латы, да ещё одному, довольно непросто, но вы всё же решаете это сделать. Дверь не заперта и, гостеприимно распахнувшись, пропускает вас. Похоже, вы попали в комнату стражи. На стенах и на полу потёртые шкуры, грубо сколоченный стол с лавками подле него... Но главное, из-за стола навстречу вам вскакивают два очень удивлённых гарраса. По их лицам вы видите, что рыцари ордена Аконита заглядывают сюда нечасто, но мало ли какая прихоть взбрела вам в голову. И мало ли куда может вас отправить с поручением колдун. Гаррасы низко кланяются и, повинуясь небрежному взмаху руки, опускаются обратно на лавки… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Если вы что-то хотите купить, покупайте. Молоко придётся выпить сразу, а всё остальное, если хотите, можете взять с собой. Если есть желание, купите ещё и заплечный мешок — он стоит 8 золотых, но в него помещается больше, чем в ваш: не 7, а 9 предметов. Однако два заплечных мешка нести неудобно, и, если свой у вас ещё с собой, вы должны будете оставить его в доме у торговца. Так уж и быть, он даст вам за него две монеты trig003 Теперь можете либо уходить jump106 либо попробовать поболтать с ним ещё jump213</t>
+  </si>
+  <si>
+    <t>Как ни странно, этот человек действительно торговец из Катэны, не так давно прибывший в зачарованный лес в надежде на неплохие прибыли. По его словам, жаловаться не приходится: никакого Барлада Дэрта он и в глаза не видел, в лесу тихо и спокойно, а все слухи про неведомые опасности и гибельные чащобы распускают бездельники, мечтающие прослыть героями. А товары у него вот какие: магические лепёшки ценой в 3 золотых каждая (по его словам, помогают от укуса змеи) item000 мандарин (стоит 2 золотых и восстановит вам 2 СИЛЫ) item001 яблоко (стоит 1 золотой и восстановит 1 СИЛУ) item002 банан (стоит 6 золотых и восстановит 6 СИЛ) item003 молоко (стоит 2 золотых и восстановит 3 СИЛЫ) trig000 мешочек с лепестками розы, отгоняющими злых духов, всего за 5 монет item004 За 4 золотых он предлагает наполнить вашу флягу целиком (2 единицы) trig001 или за 2 наполовину (1 единица) trig002 … Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Гаррасы стреляют, стрелы летят прямо в вас, но что это?! Вы чувствуете острую боль в левой руке и под правым коленом. Не теряя времени, вы отскакиваете от картины. Всё немедленно принимает прежний вид. Но стрелыто всё ещё торчат! Вы осторожно вынимаете их, радуясь, что они хотя бы не отравлены. Потеряйте 1 ЛОВКОСТЬ и 3 СИЛЫ. Да, лучше уж либо выйти через дверь jump138 либо подняться jump523 или спуститься jump452 по лестницам, либо подойти к окну jump070</t>
+  </si>
+  <si>
+    <t>Подойдя поближе, видите, что картина изображает не битву, а расправу. В центре высится на коне рыцарь в латах и шлеме с открытым забралом, на его щите сиреневой свечкой горит цветок. Рукой в железной перчатке он указывает своим воинам на горящую деревню. В другой руке у него меч. Воины на заднем плане выволакивают из хат крестьян, несколько гаррасов с факелами поджигают дома. Может быть, именно так и завоёвывались деревни вокруг леса? Или это эпизод из жизни армии колдуна до его прихода в эти места? Но ваши размышления прерваны: с картиной что-то происходит. На ваших глазах рыцарь разворачивает лошадь — теперь его перчатка направлена на вас. Завороженный увиденным, вы цепенеете. Несколько гаррасов поднимают луки, направляют на вас и кладут стрелы на тетивы. Вы испытываете странное желание убежать от этой страшной картины, но она притягивает, приковывает к себе. … Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>«А теперь, — продолжает он, — мне просто любопытно, что ты собираешься делать дальше. И вообще, я не понимаю, чем тебе не понравился мой новый камердинер. — Он кивает на гарпию. — Я просто хотел, чтобы она почистила твою одежду — уж слишком она грязная и пыльная». Чародей издевается над вами, но выто не ожидали такой встречи, надеясь, что, когда доберётесь до него, всё решится само собой. Что же теперь делать? Если хотите, то можете выхватить меч и попробовать убить мага jump577 а может быть, у вас есть золотое кольцо или изображение неведомого бога? Тогда воспользуйтесь ими. Иначе вам придётся просто стоять и смотреть, что будет дальше jump218</t>
+  </si>
+  <si>
+    <t>Барлад Дэрт вновь смотрит на вас. На этот раз в его взгляде уже больше любопытства. «Забавно, — говорит он, — сколько же человечишка может возомнить о себе. Наверно, думаешь, что ты — вершитель судеб королевства, а я сейчас помогу тебе разбудить принцессу, и мои крылатые кони доставят вас обоих домой? На самом деле ты лишь моё развлечение, забава, и не более того. Я наблюдал за тобой с того момента, как ты вошёл в лес». Видя, что вы не верите, колдун, неприятно улыбаясь, напоминает несколько наиболее опасных моментов вашего путешествия… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Вы входите в комнату, и дверь, как обычно, закрывается за спиной. В ту же секунду вас обволакивает тьма. Но это не просто темнота — она живёт, дышит, чьи-то руки трогают вас, чье-то дыхание едва уловимым ветерком касается лица, воздух вокруг колеблется. Вы осторожно проводите рукой по стене, пытаясь нащупать выход. И едва не подпрыгиваете, когда со всех сторон раздаётся мерзкий, шипящий, полный ненависти голос. Вам кажется, что он идёт отовсюду: и справа, и слева, и даже из-под ног. «Никто не может безнаказанно нарушить покой духов тьмы!» В углу комнаты появляется слабый свет, так светится гнилушка на болоте. Однако этого огонька достаточно лишь для того, чтобы разглядеть человеческий скелет, лежащий у стены. Невидимая рука, держащая свечу, движется: вот ещё один скелет, он уже сидит, прислонившись к той же стене, вот ещё один, ещё. А это уже не скелет, человек погиб совсем недавно, и вы с ужасом узнаёте в нём одного из пажей, которых видели в королевских покоях… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Из холла ведут две двери и две лестницы. Лестница справа уходит вниз, слева — наверх. В конце холла две двери — тоже направо и налево, но они совершенно одинаковые, и ничто не подсказывает вам, какую из них выбрать. Решайте, куда пойдёте. По лестнице вверх jump191 или вниз jump030 в дверь направо jump053 или налево? jump467</t>
+  </si>
+  <si>
+    <t>Вы оказываетесь в пустом и гулком холле Чёрного замка. Резкий хлопок за спиной едва не заставляет вас подпрыгнуть. Схватившись за меч, оборачиваетесь, но это всего лишь захлопнулась дверь, через которую вы вошли. Несколько секунд — и это уже не дверь, а часть стены, и даже нельзя сказать, где она была. Пытаетесь открыть её — слишком поздно. Может быть, когда-нибудь вы узнаете, почему все двери в замке будут закрываться за вашей спиной (так, что их при этом будет не открыть ни силой, ни ключами, ни колдовством), но пока есть только один путь — вперёд. Через каждые несколько шагов на стенах висят канделябры в виде извивающихся змей — света достаточно. Однако потолка не видно, он уходит куда-то вверх, в загадочную темноту, где царит эхо, сопровождающее каждый ваш шаг. Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Подойдя поближе, видите, что картина изображает не битву, а расправу. В центре высится на коне рыцарь в латах и шлеме с открытым забралом, на его щите сиреневой свечкой горит цветок. Рукой в железной перчатке он указывает своим воинам на горящую деревню. В другой руке у него меч. Воины на заднем плане выволакивают из хат крестьян, несколько гаррасов с факелами поджигают дома. Может быть, именно так и завоёвывались деревни вокруг леса? Или это эпизод из жизни армии колдуна до его прихода в эти места? Но ваши размышления прерваны: с картиной что-то происходит. На ваших глазах рыцарь разворачивает лошадь — теперь его перчатка направлена на вас. Завороженный увиденным, вы цепенеете. Несколько гаррасов поднимают луки, направляют на вас и кладут стрелы на тетивы. Вы испытываете странное желание убежать от этой страшной картины, но она притягивает, приковывает к себе… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Как ни странно, этот человек действительно торговец из Катэны, не так давно прибывший в зачарованный лес в надежде на неплохие прибыли. По его словам, жаловаться не приходится: никакого Барлада Дэрта он и в глаза не видел, в лесу тихо и спокойно, а все слухи про неведомые опасности и гибельные чащобы распускают бездельники, мечтающие прослыть героями. А товары у него вот какие: магические лепёшки ценой в 3 золотых каждая (по его словам, помогают от укуса змеи) item000 мандарин (стоит 2 золотых и восстановит вам 2 СИЛЫ) item001 яблоко (стоит 1 золотой и восстановит 1 СИЛУ) item002 банан (стоит 6 золотых и восстановит 6 СИЛ) item003 молоко (стоит 2 золотых и восстановит 3 СИЛЫ) trig000 мешочек с лепестками розы, отгоняющими злых духов, всего за 5 монет item004 За 4 золотых он предлагает наполнить вашу флягу целиком (2 единицы) trig001 или за 2 наполовину (1 единица) trig002… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Гаррасы низко кланяются и, повинуясь небрежному взмаху руки, опускаются обратно на лавки. Что же теперь делать? Настоящий рыцарь ориентировался бы в замке куда лучше любого гарраса, но выто не настоящий! Между тем в комнате ещё три двери: по одной в каждой стене. Вот только имеет ли право рыцарь войти в любую из них? Однако долго думать нельзя: гаррасы могут насторожиться. Решайте: вы пойдёте в правую дверь jump446 в левую, на которой висит огромный замок jump257 или выберете дверь в противоположной стене? jump397</t>
+  </si>
+  <si>
+    <t>Кто его знает, что там за дверью. Надевать латы, да ещё одному, довольно непросто, но вы всё же решаете это сделать. Дверь не заперта и, гостеприимно распахнувшись, пропускает вас. Похоже, вы попали в комнату стражи. На стенах и на полу потёртые шкуры, грубо сколоченный стол с лавками подле него... Но главное, из-за стола навстречу вам вскакивают два очень удивлённых гарраса. По их лицам вы видите, что рыцари ордена Аконита заглядывают сюда нечасто, но мало ли какая прихоть взбрела вам в голову. И мало ли куда может вас отправить с поручением колдун… Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Увидев вас, он с трудом приподнимается и зовёт: «Путник... подойди, кто бы ты ни был. Я несчастный торговец... на меня напали... лихие люди, ограбили до нитки и бросили здесь умирать. Подойди... помоги мне!» Вряд ли говорит правду; скорее всего, просто что-то не поделил со своими собратьями. Что вы сделаете? Подойдёте поближе и выясните, что ему надо? jump302 Или оставите умирать и пойдёте дальше? jump234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Справа, из-под стены, вытекает река и скрывается под донжоном. Нет, понятно, конечно, что, в случае осады, гарнизону понадобится питьевая вода, но это уж чересчур... 
+ А теперь решайте, куда вы направитесь. К реке? jump375 К шатрам? Jump424</t>
+  </si>
+  <si>
+    <t>Наконец-то вы во дворе Чёрного замка! Яркий свет факелов прямо перед вами заставляет остановиться и спрятаться в нише ворот. Двор полон гаррасами, снующими между шатров, тут и там горят костры. Вы чуть было не оказались в самом центре военного лагеря врага. 
  Прямо перед вами в центре двора высится высокая и уродливая башня — донжон. На её чёрных стенах гуляют отблески пламени, отчего она кажется особенно зловещей. Приглядевшись, вы замечаете, что этот донжон не похож ни на один, виденный вами ранее, больше всего он напоминает гигантский молот, ручка которого устремлена в небо. Основание этого строения на редкость громоздко, а вот чем выше, тем больше башня сужается. Где же принцесса? В подземной темнице или там, наверху, в самом неприступном месте башни? И где сейчас сам чародей? 
- Справа, из-под стены, вытекает река и скрывается под донжоном. Нет, понятно, конечно, что, в случае осады, гарнизону понадобится питьевая вода, но это уж чересчур... 
- </t>
-  </si>
-  <si>
-    <t>Решайте: вы пойдёте в правую дверь jump446 в левую, на которой висит огромный замок jump257 или выберете дверь в противоположной стене? jump397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кто его знает, что там за дверью. Надевать латы, да ещё одному, довольно непросто, но вы всё же решаете это сделать. Дверь не заперта и, гостеприимно распахнувшись, пропускает вас. Похоже, вы попали в комнату стражи. На стенах и на полу потёртые шкуры, грубо сколоченный стол с лавками подле него... Но главное, из-за стола навстречу вам вскакивают два очень удивлённых гарраса. По их лицам вы видите, что рыцари ордена Аконита заглядывают сюда нечасто, но мало ли какая прихоть взбрела вам в голову. И мало ли куда может вас отправить с поручением колдун. Гаррасы низко кланяются и, повинуясь небрежному взмаху руки, опускаются обратно на лавки. Что же теперь делать? Настоящий рыцарь ориентировался бы в замке куда лучше любого гарраса, но выто не настоящий! Между тем в комнате ещё три двери: по одной в каждой стене. Вот только имеет ли право рыцарь войти в любую из них? Однако долго думать нельзя: гаррасы могут насторожиться. </t>
-  </si>
-  <si>
-    <t>А товары у него вот какие: магические лепёшки ценой в 3 золотых каждая (по его словам, помогают от укуса змеи) item000 мандарин (стоит 2 золотых и восстановит вам 2 СИЛЫ) item001 яблоко (стоит 1 золотой и восстановит 1 СИЛУ) item002 банан (стоит 6 золотых и восстановит 6 СИЛ) item003 молоко (стоит 2 золотых и восстановит 3 СИЛЫ) trig000 мешочек с лепестками розы, отгоняющими злых духов, всего за 5 монет item004 За 4 золотых он предлагает наполнить вашу флягу целиком (2 единицы) trig001 или за 2 наполовину (1 единица) trig002 Если вы что-то хотите купить, покупайте.  Если есть желание, купите ещё и заплечный мешок — он стоит 8 золотых, но в него помещается больше, чем в ваш: не 7, а 9 предметов. Однако два заплечных мешка нести неудобно, и, если свой у вас ещё с собой, вы должны будете оставить его в доме у торговца. Так уж и быть, он даст вам за него две монеты trig003 Теперь можете либо уходить jump106 либо попробовать поболтать с ним ещё jump213</t>
-  </si>
-  <si>
-    <t>Как ни странно, этот человек действительно торговец из Катэны, не так давно прибывший в зачарованный лес в надежде на неплохие прибыли. По его словам, жаловаться не приходится: никакого Барлада Дэрта он и в глаза не видел, в лесу тихо и спокойно, а все слухи про неведомые опасности и гибельные чащобы распускают бездельники, мечтающие прослыть героями.</t>
-  </si>
-  <si>
-    <t>Не теряя времени, вы отскакиваете от картины. Всё немедленно принимает прежний вид. Но стрелыто всё ещё торчат! Вы осторожно вынимаете их, радуясь, что они хотя бы не отравлены. Потеряйте 1 ЛОВКОСТЬ и 3 СИЛЫ. Да, лучше уж либо выйти через дверь jump138 либо подняться jump523 или спуститься jump452 по лестницам, либо подойти к окну jump070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подойдя поближе, видите, что картина изображает не битву, а расправу. В центре высится на коне рыцарь в латах и шлеме с открытым забралом, на его щите сиреневой свечкой горит цветок. Рукой в железной перчатке он указывает своим воинам на горящую деревню. В другой руке у него меч. Воины на заднем плане выволакивают из хат крестьян, несколько гаррасов с факелами поджигают дома. Может быть, именно так и завоёвывались деревни вокруг леса? Или это эпизод из жизни армии колдуна до его прихода в эти места? Но ваши размышления прерваны: с картиной что-то происходит. На ваших глазах рыцарь разворачивает лошадь — теперь его перчатка направлена на вас. Завороженный увиденным, вы цепенеете. Несколько гаррасов поднимают луки, направляют на вас и кладут стрелы на тетивы. Вы испытываете странное желание убежать от этой страшной картины, но она притягивает, приковывает к себе. Гаррасы стреляют, стрелы летят прямо в вас, но что это?! Вы чувствуете острую боль в левой руке и под правым коленом. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Решайте, куда пойдёте. По лестнице вверх jump191 или вниз jump030 в дверь направо jump053 или налево? jump467</t>
-  </si>
-  <si>
-    <t>Вы оказываетесь в пустом и гулком холле Чёрного замка. Резкий хлопок за спиной едва не заставляет вас подпрыгнуть. Схватившись за меч, оборачиваетесь, но это всего лишь захлопнулась дверь, через которую вы вошли. Несколько секунд — и это уже не дверь, а часть стены, и даже нельзя сказать, где она была. Пытаетесь открыть её — слишком поздно. Может быть, когда-нибудь вы узнаете, почему все двери в замке будут закрываться за вашей спиной (так, что их при этом будет не открыть ни силой, ни ключами, ни колдовством), но пока есть только один путь — вперёд. Через каждые несколько шагов на стенах висят канделябры в виде извивающихся змей — света достаточно. Однако потолка не видно, он уходит куда-то вверх, в загадочную темноту, где царит эхо, сопровождающее каждый ваш шаг. Из холла ведут две двери и две лестницы. Лестница справа уходит вниз, слева — наверх. В конце холла две двери — тоже направо и налево, но они совершенно одинаковые, и ничто не подсказывает вам, какую из них выбрать.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Видимо, вы путешествуете слишком долго, и паж был следующим, кто вызвался освободить принцессу. По лесу он наверняка прошёл быстрее — и вот такая смерть... Может быть, поможет какая-нибудь вещица из вашего заплечного мешка? Что вы достанете? Мешочек с непроглядной тьмой? Перо павлина, если вы умеете с ним правильно обращаться? Серебряный сосуд? Ожерелье из топазов? Зажжёте свечу или светильник? Если же у вас нет ни одного из этих предметов, то jump572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вы входите в комнату, и дверь, как обычно, закрывается за спиной. В ту же секунду вас обволакивает тьма. Но это не просто темнота — она живёт, дышит, чьи-то руки трогают вас, чье-то дыхание едва уловимым ветерком касается лица, воздух вокруг колеблется. Вы осторожно проводите рукой по стене, пытаясь нащупать выход. И едва не подпрыгиваете, когда со всех сторон раздаётся мерзкий, шипящий, полный ненависти голос. Вам кажется, что он идёт отовсюду: и справа, и слева, и даже из-под ног. «Никто не может безнаказанно нарушить покой духов тьмы!» В углу комнаты появляется слабый свет, так светится гнилушка на болоте. Однако этого огонька достаточно лишь для того, чтобы разглядеть человеческий скелет, лежащий у стены. Невидимая рука, держащая свечу, движется: вот ещё один скелет, он уже сидит, прислонившись к той же стене, вот ещё один, ещё. А это уже не скелет, человек погиб совсем недавно, и вы с ужасом узнаёте в нём одного из пажей, которых видели в королевских покоях. </t>
-  </si>
-  <si>
-    <t>Если хотите, то можете выхватить меч и попробовать убить мага jump577 а может быть, у вас есть золотое кольцо или изображение неведомого бога? Тогда воспользуйтесь ими. Иначе вам придётся просто стоять и смотреть, что будет дальше jump218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Барлад Дэрт вновь смотрит на вас. На этот раз в его взгляде уже больше любопытства. «Забавно, — говорит он, — сколько же человечишка может возомнить о себе. Наверно, думаешь, что ты — вершитель судеб королевства, а я сейчас помогу тебе разбудить принцессу, и мои крылатые кони доставят вас обоих домой? На самом деле ты лишь моё развлечение, забава, и не более того. Я наблюдал за тобой с того момента, как ты вошёл в лес». Видя, что вы не верите, колдун, неприятно улыбаясь, напоминает несколько наиболее опасных моментов вашего путешествия. «А теперь, — продолжает он, — мне просто любопытно, что ты собираешься делать дальше. И вообще, я не понимаю, чем тебе не понравился мой новый камердинер. — Он кивает на гарпию. — Я просто хотел, чтобы она почистила твою одежду — уж слишком она грязная и пыльная». Чародей издевается над вами, но выто не ожидали такой встречи, надеясь, что, когда доберётесь до него, всё решится само собой. Что же теперь делать? </t>
-  </si>
-  <si>
-    <t>Расправа была коротка и жестока. Больше словоохотливый торговец ничего не знает, и вам остаётся только распрощаться и покинуть лавку jump106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Торговец предлагает вам присесть у камина и неторопливо рассказывает, куда идут дороги от его дома. Справа в лесу сторожевая застава: слуги волшебника сторожат дорогу, и никто не может пройти мимо них незамеченным. Если же избрать путь, ведущий налево, придёте к небольшой хижине, в которой, насколько он знает, живёт какой-то странненький старичок. Но это не более чем слухи: сам торговец по этой дороге ни разу не ходил и с обитателем хижины не встречался. Напоследок он рассказывает, что Чёрный замок действительно существует, но до него ещё очень далеко. Проникнуть туда гораздо труднее, чем пройти через лес, и здесь он ничем не может помочь. Единственное, что можно посоветовать: идти в открытую лучше, чем прятаться. Когда однажды он пытался войти в замок со своими товарищами (его туда так и не пустили), то видел, как стража извлекала из воза с сеном какого-то человека, пытавшегося проникнуть в цитадель незамеченным. </t>
-  </si>
-  <si>
-    <t>Всё это они отыскали в разное время по дороге к полям и подозревают, что эти вещи принадлежали надсмотрщикам-гаррасам. Вдруг пригодится! Кроме того, они говорят, что в замке остался их друг, превращённый чародеем в старика, но больше о его судьбе ничего не известно. Они просят, если вы его встретите, передать, что они живы и на свободе. А если вам будет нужна помощь, скажите ему: «Трое из Эвенло» (так называлась их деревенька), — и он вам не откажет. Если вы решите, что встретили их друга, воспользуйтесь этой информацией, и попробуйте, если хотите, передать ему послание беглецов info000 Теперь же отправляйтесь дальше jump003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Они рассказывают вам, что некогда жили в деревушке на краю леса. Может быть, вы были в ней? (Если да, то можете рассказать им, что стало с деревней.) Когда чёрный маг захватил лес, почти все мужчины были на охоте и ни о чём не ведали. Их травили собаками, как диких животных, переловили по одному и заставили работать на полях неподалёку от замка. Несколько недель назад им двоим удалось бежать, и с тех пор приходилось питаться лишь тем, что дарил лес. Беглецы просят прощения за то, что чуть было не напали на вас, и дают несколько советов. Самый главный: они случайно узнали из разговоров между надсмотрщиками, что, приближаясь к покоям волшебника, лучше идти направо, чем налево. Что это значит, они не ведают, но надеются, что вы доберётесь до ненавистного чародея, и дарят вам зеркальце item000 небольшую брошь в виде Чёрного замка item001 и дверной молоток в форме кулака item002 когда-то такие были очень распространены. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Пойдёте по ней направо jump559 налево jump216 или прямо? Если вы пойдёте прямо, то тропинка вскоре выведет вас на другую дорогу jump445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вы следуете за клубочком, поскольку уже несколько раз убеждались в том, что дорога, которую он вам указывает, удобна и безопасна. Неожиданно он сворачивает с тропинки и устремляется в лес. Вы настолько не ожидали этого, что не успеваете отреагировать так же быстро, а когда раздвигаете кусты, клубочка за ними уже нет. Ох, как обидно! И тут ваше внимание привлекает небольшая лужица, оставшаяся на земле после дождя. Заметив в ней что-то необычное, вы наклоняетесь пониже. Словно почувствовав внимательный взгляд человека, вода темнеет, и, остолбенев, вы видите себя же, беззаботно идущего дальше по той же тропинке. Перекрёсток. Свернув налево, выходите на поляну. Но что это? С разных сторон на вас накидываются разбойники! Вода опять темнеет, успокаивается, и, сколько ни ждёте, больше ничего не появляется. Даже самого обычного отражения. Полный благодарности к лесовичку, выбираетесь на тропинку, но перекрёсток оказывается гораздо дальше, чем вы думали. Наконец вы пересекаете широкую дорогу. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Если у вас есть зеркальце, попробуйте его использовать. Если нет, вам придётся драться с ней, надеясь только на себя да (при желании) на заклятие Копии. 
- $1ГАРПИЯ 
- $2Ловкость 10     Сила 12 battle Если вы убилиеё, то jump388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эти покои просторнее, а обставлены, пожалуй, ещё более роскошно. Первое, что сразу бросается в глаза, — огромный письменный стол, его ножки сделаны в виде мощных звериных лап. Стол завален свитками с картами Элгариола. Уж не готовит ли колдун вторжение? Тогда вы как нельзя вовремя! Но неужели за столом сам Барлад Дэрт?! Вот этот невысокий, тучный, начинающий лысеть человечек и есть могущественный маг, перед которым дрожат обитатели зачарованного леса?! Подняв голову, чародей слегка кривит губу и морщится, точно завидев попавшее ему в кубок насекомое. Уделив вам всего пару секунд, он щёлкает пальцами и вновь погружается в работу, более не обращая на вас никакого внимания. А вот статуя слева от него — отвратительная гарпия, полуженщина-полуптица — оживает и медленно надвигается на незваного гостя. </t>
+ … Для продолжения повествования, скажите "Далее".</t>
+  </si>
+  <si>
+    <t>Теперь уже туманными неопределённостями не отделаться. Что вы ответите: что идёте в Чёрный замок сражаться с волшебником jump610 или освобождать Принцессу jump284 что забрели в лес случайно jump492 или решите, что он не имеет права задавать вам никаких вопросов, и обнажите меч? jump563</t>
+  </si>
+  <si>
+    <t>Вы продолжаете идти дальше. Вдруг ваше внимание привлекает какое-то движение в листве большого клёна справа от дороги. Остановившись, поднимаете голову. Из листвы на вас смотрит умное лицо с маленькой аккуратной бородкой. Большие серые глаза внимательно изучают вас какое-то время, а потом вниз спрыгивает маленький старичок в зелёной курточке и аккуратных зелёных штанишках, заправленных в сапожки. Это лесовичок, охраняющий дорогу. Но от кого: от ваших врагов или от ваших друзей? Этогото вы и не знаете, а между тем лесовичок интересуется, кто это тут гуляет по лесным дорогам-тропам. Вы отвечаете, что вы — одинокий искатель приключений, которого судьба занесла в зачарованный лес. Однако он не успокаивается и спрашивает, что вы ищете в этом лесу. Для продолжения повествования, скажите "Далее".</t>
   </si>
 </sst>
 </file>
@@ -570,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C811F661-200F-44B7-B6E7-9BCC0F244FC8}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="C63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,32 +583,32 @@
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="92.5703125" style="2" customWidth="1"/>
     <col min="6" max="7" width="68.28515625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -618,13 +619,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -632,13 +636,16 @@
         <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>16</v>
       </c>
@@ -646,13 +653,16 @@
         <v>416</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45</v>
       </c>
@@ -660,13 +670,16 @@
         <v>345</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45</v>
       </c>
@@ -674,13 +687,16 @@
         <v>208</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45</v>
       </c>
@@ -688,13 +704,16 @@
         <v>627</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>48</v>
       </c>
@@ -702,13 +721,16 @@
         <v>308</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>48</v>
       </c>
@@ -716,13 +738,16 @@
         <v>666</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>48</v>
       </c>
@@ -730,13 +755,16 @@
         <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>82</v>
       </c>
@@ -744,13 +772,16 @@
         <v>610</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>82</v>
       </c>
@@ -758,13 +789,16 @@
         <v>284</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>82</v>
       </c>
@@ -772,13 +806,16 @@
         <v>492</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>82</v>
       </c>
@@ -786,13 +823,16 @@
         <v>563</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>100</v>
       </c>
@@ -800,13 +840,16 @@
         <v>375</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>100</v>
       </c>
@@ -814,13 +857,16 @@
         <v>424</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>110</v>
       </c>
@@ -828,13 +874,16 @@
         <v>302</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>110</v>
       </c>
@@ -842,13 +891,16 @@
         <v>234</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>113</v>
       </c>
@@ -856,13 +908,16 @@
         <v>446</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>113</v>
       </c>
@@ -870,13 +925,16 @@
         <v>257</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>113</v>
       </c>
@@ -884,13 +942,16 @@
         <v>397</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>176</v>
       </c>
@@ -898,13 +959,16 @@
         <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>176</v>
       </c>
@@ -912,13 +976,16 @@
         <v>213</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>205</v>
       </c>
@@ -926,13 +993,16 @@
         <v>138</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>205</v>
       </c>
@@ -940,13 +1010,16 @@
         <v>523</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>205</v>
       </c>
@@ -954,13 +1027,16 @@
         <v>452</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>205</v>
       </c>
@@ -968,360 +1044,754 @@
         <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>388</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>388</v>
+      </c>
+      <c r="B29" s="1">
+        <v>218</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>388</v>
+      </c>
+      <c r="B30" s="1">
+        <v>577</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>277</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>265</v>
-      </c>
-      <c r="B28" s="1">
-        <v>191</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>265</v>
-      </c>
-      <c r="B29" s="1">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>265</v>
-      </c>
-      <c r="B30" s="1">
-        <v>53</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>265</v>
-      </c>
-      <c r="B31" s="1">
-        <v>467</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>277</v>
       </c>
-      <c r="B33" s="1">
-        <v>572</v>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>277</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>277</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>277</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>277</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>277</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
+      <c r="B38" s="1">
+        <v>572</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>277</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>265</v>
+      </c>
+      <c r="B40" s="1">
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>388</v>
+        <v>265</v>
       </c>
       <c r="B41" s="1">
-        <v>577</v>
+        <v>467</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>388</v>
+        <v>265</v>
       </c>
       <c r="B42" s="1">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>388</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>9</v>
+        <v>265</v>
+      </c>
+      <c r="B43" s="1">
+        <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>388</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="B44" s="1">
+        <v>218</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>388</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>388</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>205</v>
+      </c>
+      <c r="B47" s="1">
+        <v>70</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>205</v>
+      </c>
+      <c r="B48" s="1">
+        <v>452</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>205</v>
+      </c>
+      <c r="B49" s="1">
+        <v>523</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>205</v>
+      </c>
+      <c r="B50" s="1">
+        <v>138</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>176</v>
+      </c>
+      <c r="B51" s="1">
+        <v>213</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>176</v>
+      </c>
+      <c r="B52" s="1">
+        <v>106</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>113</v>
+      </c>
+      <c r="B53" s="1">
+        <v>257</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1">
+        <v>397</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>113</v>
+      </c>
+      <c r="B55" s="1">
+        <v>446</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1">
+        <v>302</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G56" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>110</v>
+      </c>
+      <c r="B57" s="1">
+        <v>234</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>100</v>
+      </c>
+      <c r="B58" s="1">
+        <v>424</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>100</v>
+      </c>
+      <c r="B59" s="1">
+        <v>375</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>82</v>
+      </c>
+      <c r="B60" s="1">
+        <v>563</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>82</v>
+      </c>
+      <c r="B61" s="1">
+        <v>284</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>82</v>
+      </c>
+      <c r="B62" s="1">
+        <v>492</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1">
+        <v>610</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>413</v>
-      </c>
-      <c r="B45" s="1">
-        <v>46</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>443</v>
-      </c>
-      <c r="B46" s="1">
-        <v>106</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>520</v>
-      </c>
-      <c r="B47" s="1">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>576</v>
-      </c>
-      <c r="B48" s="1">
-        <v>559</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>576</v>
-      </c>
-      <c r="B49" s="1">
-        <v>216</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>576</v>
-      </c>
-      <c r="B50" s="1">
-        <v>445</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>671</v>
-      </c>
-      <c r="B51" s="1">
-        <v>388</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>671</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>56</v>
+      <c r="B64" s="1">
+        <v>116</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>48</v>
+      </c>
+      <c r="B65" s="1">
+        <v>666</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>48</v>
+      </c>
+      <c r="B66" s="1">
+        <v>308</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45</v>
+      </c>
+      <c r="B67" s="1">
+        <v>627</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45</v>
+      </c>
+      <c r="B68" s="1">
+        <v>208</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45</v>
+      </c>
+      <c r="B69" s="1">
+        <v>345</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1">
+        <v>120</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>16</v>
+      </c>
+      <c r="B71" s="1">
+        <v>416</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>16</v>
+      </c>
+      <c r="B72" s="1">
+        <v>557</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
